--- a/biology/Histoire de la zoologie et de la botanique/Henri_Dauvergne/Henri_Dauvergne.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Henri_Dauvergne/Henri_Dauvergne.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henri Dauvergne, né Henry Louis Gilbert Dauvergne le 16 août 1836 à Gannat[1] où il est mort en 1920, est un explorateur et naturaliste français.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henri Dauvergne, né Henry Louis Gilbert Dauvergne le 16 août 1836 à Gannat où il est mort en 1920, est un explorateur et naturaliste français.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Arrivé au Cachemire en 1865 comme chargé d'affaires de la Compagnie des Indes, il s'installe à Srinagar où il devient le Directeur d'une fabrique de tapis[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Arrivé au Cachemire en 1865 comme chargé d'affaires de la Compagnie des Indes, il s'installe à Srinagar où il devient le Directeur d'une fabrique de tapis.
 Henri Dauvergne a parcouru toutes les hautes montagnes du Pamir et de l'Hindou-Kouch pour le développement de ses affaires.
 Dès 1885 il voyage ainsi à trois reprises à Yarkand et franchit le Karakoram. Il visite aussi le Ferghana sous domination russe et le Tibet occidental. En 1889, il entreprend un grand périple à travers le Karakoram au départ de Srinagar (22 juin 1889). Il se rend alors à Leh, capitale du Ladakh appelé aussi « Petit Tibet », pour y organiser une caravane composée de quatre guides locaux, de dix chevaux et de yaks pour le transport.
 Le 23 juin, il franchit le col du Kardong à 5 400 m d'altitude, puis se lance dans la chaîne du Sasser et son col du Sasser (5 490 m) extrêmement dangereux. Il passe ensuite le col du Karakoram (5 630 m) beaucoup plus facile que le précédent où Dauvergne établit un mazar, sorte de cairn, à la mémoire de son ami Andrew Dalgleish (en) qui y fut assassiné en mars 1888.
@@ -528,10 +542,10 @@
 que la rivière Toung est un affluent du Zeravchan et non du Tagdumbash
 qu'à l'inverse de ce qu'affirment les cartes britanniques, la vallée et le col de Karumber sont praticables.
 L'expédition d'Henri Dauvergne s'avère un important exploit sportif. En six mois, il a parcouru plus de 2 500 km, traversé douze rivières importantes dont trente fois le Karumber, franchi vingt-sept cols dont le Karakoram.
-En septembre 1890, Dauvergne est à Srinagar où séjournèrent St. George Littledale et son épouse qui le rencontrèrent[3].
-Isabelle Massieu le rencontre lors de son séjour au Ladakh en 1894[4], Dauvergne l'accompagne au monastère d'Hémis[5].
-Membre de la Société de géographie depuis 1882[6], il est mort en 1920[7]
-Jules Verne le mentionne à diverses reprises dans son roman Claudius Bombarnac où il le nomme « D'Auvergne »[2].
+En septembre 1890, Dauvergne est à Srinagar où séjournèrent St. George Littledale et son épouse qui le rencontrèrent.
+Isabelle Massieu le rencontre lors de son séjour au Ladakh en 1894, Dauvergne l'accompagne au monastère d'Hémis.
+Membre de la Société de géographie depuis 1882, il est mort en 1920
+Jules Verne le mentionne à diverses reprises dans son roman Claudius Bombarnac où il le nomme « D'Auvergne ».
 </t>
         </is>
       </c>
@@ -560,7 +574,9 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Voyage aux Bas Kouen-Louen et aux sources de l'Oxus, Bulletin de la Société de Géographie, 1889, (Paris).
 Exploration dans l'Asie centrale, Bulletin de la Société de géographie, 1892, p. 5-40 (dont une carte)</t>
